--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2949672.275538231</v>
+        <v>2945617.351158728</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847138</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7497253.480233209</v>
+        <v>7494303.583281114</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>46.56906719597693</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -719,7 +719,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956577</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,10 +750,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.86702424530502</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>22.92944014222671</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>55.24675346159196</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779225</v>
       </c>
       <c r="I5" t="n">
-        <v>46.35395027546584</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794509</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348900142</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>184.3656205011949</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>166.1501781164509</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1291,13 +1291,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.419053599019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>100.5791034295503</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384554</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1427,7 +1427,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>273.2977702070789</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.482381017326</v>
       </c>
       <c r="E14" t="n">
-        <v>3.730459270485554</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,7 +1622,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>42.96247126414336</v>
@@ -1664,7 +1664,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.903426900358</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.444756602952</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453494</v>
+        <v>20.92391191189573</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443506</v>
+        <v>48.81858568179585</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896134</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158225</v>
+        <v>137.1653684431833</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274705</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046339</v>
+        <v>67.32610467782418</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074579</v>
+        <v>52.47323292810658</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258552</v>
+        <v>38.04694813994631</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546463</v>
+        <v>37.97339019282542</v>
       </c>
       <c r="F34" t="n">
-        <v>46.1663040852319</v>
+        <v>39.72284161259269</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762403</v>
+        <v>50.54167953498482</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419608</v>
+        <v>37.89393170155687</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536801</v>
+        <v>15.7336472827288</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982393</v>
+        <v>6.632145647184714</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535124</v>
+        <v>84.75808915271203</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595233</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734591</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942093</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175982</v>
+        <v>104.851106744959</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>1.098310803921166</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G41" t="n">
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.486906268228</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812812</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U41" t="n">
-        <v>152.820863582693</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415636</v>
+        <v>86.88909903415644</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443885</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627858</v>
       </c>
       <c r="E43" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915769</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892496</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131709</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788913</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906106</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351698</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U43" t="n">
         <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W43" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>41.58521707214899</v>
       </c>
       <c r="E44" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
         <v>312.564288486645</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822791</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812804</v>
+        <v>68.38158003812812</v>
       </c>
       <c r="T44" t="n">
-        <v>111.5993949357637</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
         <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415636</v>
+        <v>86.88909903415644</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443885</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627858</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915769</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892496</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131709</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788913</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906106</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351698</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U46" t="n">
         <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.131457402513</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.131457402513</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>1275.131457402513</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490357</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703884</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>46.56170315639491</v>
       </c>
       <c r="K2" t="n">
-        <v>187.140511445867</v>
+        <v>405.5440591838567</v>
       </c>
       <c r="L2" t="n">
-        <v>680.4608031643958</v>
+        <v>898.8643509023856</v>
       </c>
       <c r="M2" t="n">
-        <v>680.4608031643958</v>
+        <v>898.8643509023856</v>
       </c>
       <c r="N2" t="n">
-        <v>1206.283692560251</v>
+        <v>1400.031133897836</v>
       </c>
       <c r="O2" t="n">
-        <v>1646.32329345258</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710994</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137464</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078515</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>1872.990996264396</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>1617.238266698995</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V2" t="n">
-        <v>1275.131457402513</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="W2" t="n">
-        <v>1275.131457402513</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>1275.131457402513</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>1275.131457402513</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792.4694676889814</v>
+        <v>657.7430775364696</v>
       </c>
       <c r="C3" t="n">
-        <v>641.8152372490736</v>
+        <v>507.0888470965618</v>
       </c>
       <c r="D3" t="n">
-        <v>511.7262698705539</v>
+        <v>376.9998797180422</v>
       </c>
       <c r="E3" t="n">
-        <v>375.2797789814417</v>
+        <v>240.5533888289299</v>
       </c>
       <c r="F3" t="n">
-        <v>250.8479728645735</v>
+        <v>116.1215827120617</v>
       </c>
       <c r="G3" t="n">
-        <v>130.7881549364379</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189927</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M3" t="n">
-        <v>1373.651552706071</v>
+        <v>861.4042549562992</v>
       </c>
       <c r="N3" t="n">
-        <v>1373.651552706071</v>
+        <v>883.7630516643745</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297052</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297052</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750006</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649875</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848784</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U3" t="n">
-        <v>1765.54434420007</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V3" t="n">
-        <v>1543.004342571137</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W3" t="n">
-        <v>1312.887096704424</v>
+        <v>1026.364372110951</v>
       </c>
       <c r="X3" t="n">
-        <v>1123.580019054436</v>
+        <v>837.0572944609623</v>
       </c>
       <c r="Y3" t="n">
-        <v>944.2658021299427</v>
+        <v>657.7430775364696</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>758.72974238729</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>588.5246244532792</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="D4" t="n">
-        <v>432.891511355794</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="E4" t="n">
-        <v>277.3326992149965</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="F4" t="n">
-        <v>120.0067644279694</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703884</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703884</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703884</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1696.529855637931</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="C5" t="n">
-        <v>1303.354354140862</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="D5" t="n">
-        <v>917.9132253575294</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="E5" t="n">
-        <v>515.3297004740739</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="F5" t="n">
-        <v>98.43526200405165</v>
+        <v>538.3551089437426</v>
       </c>
       <c r="G5" t="n">
-        <v>89.31291053245889</v>
+        <v>125.1923534317457</v>
       </c>
       <c r="H5" t="n">
-        <v>89.31291053245889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703884</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>132.3210925727588</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>625.6413842912876</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>625.6413842912876</v>
+        <v>1051.843641766314</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687143</v>
+        <v>1051.843641766314</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579472</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710994</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137464</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078515</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T5" t="n">
-        <v>1696.529855637931</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U5" t="n">
-        <v>1696.529855637931</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V5" t="n">
-        <v>1696.529855637931</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.529855637931</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="X5" t="n">
-        <v>1696.529855637931</v>
+        <v>951.7038890847576</v>
       </c>
       <c r="Y5" t="n">
-        <v>1696.529855637931</v>
+        <v>951.7038890847576</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622214</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223136</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437939</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>318.8743002546817</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>194.4424941378135</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.38267620967791</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512725</v>
+        <v>74.38267620967791</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567662</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>639.1718066550795</v>
+        <v>521.4159459447617</v>
       </c>
       <c r="M6" t="n">
-        <v>1082.193754865105</v>
+        <v>1022.582728940212</v>
       </c>
       <c r="N6" t="n">
-        <v>1608.016644260961</v>
+        <v>1523.749511935663</v>
       </c>
       <c r="O6" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851942</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851942</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851942</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327675</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.8603234031827</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>523.6295393654178</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="C7" t="n">
-        <v>523.6295393654178</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="D7" t="n">
-        <v>523.6295393654178</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E7" t="n">
-        <v>368.0707272246203</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7447924375933</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703884</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>757.7098615824348</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>523.6295393654178</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>523.6295393654178</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1141.217531504963</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>748.0420300078936</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>362.6009012245613</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>362.6009012245613</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>371.4442765563904</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.655591362702</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1938.202986295759</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1541.71227721636</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>858.0088487631995</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>559.0882834477352</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>388.8831655137244</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>233.2500524162392</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>744.2963021390365</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1638.91004603347</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1340.675225823589</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D11" t="n">
-        <v>1239.080171854346</v>
+        <v>731.4357765463916</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4373282580789</v>
+        <v>656.6116896536171</v>
       </c>
       <c r="F11" t="n">
-        <v>609.483571075245</v>
+        <v>334.6579324707832</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707832</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244622</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2816.584415774169</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2816.584415774169</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2540.526062029644</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2246.01413824989</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1944.464110457679</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>84.60386270860994</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>84.60386270860994</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>568.1699486069232</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669550999</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082775</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979806</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443714</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
         <v>234.124114144533</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311667</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.396746836251</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791389</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469765</v>
+        <v>836.805091346976</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.046087107758</v>
       </c>
       <c r="O13" t="n">
         <v>1368.80221587904</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852096</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592128</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1567.337172261709</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1269.102352051828</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>978.6019045556839</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244624</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.82359028062</v>
+        <v>2905.823590280621</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002407</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2745.011542002407</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2468.953188257883</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2174.441264478128</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1872.891236685918</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5434,7 +5434,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5467,16 +5467,16 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
         <v>583.3517043592133</v>
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343043</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655135</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,22 +5771,22 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5832,13 +5832,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,19 +6148,19 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446693</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184691</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6227,16 +6227,16 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958365</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614365</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
         <v>2986.344026377456</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6306,7 +6306,7 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
         <v>607.4220014342354</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6440,70 +6440,70 @@
         <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084639</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985473</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.246771114493</v>
+        <v>890.2201666674339</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423747</v>
+        <v>590.5275805474764</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282818</v>
+        <v>294.5666773855444</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267676</v>
+        <v>87.68547930209934</v>
       </c>
       <c r="I32" t="n">
-        <v>68.5426273830455</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322592</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>680.6652639597211</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1165.756364896305</v>
       </c>
       <c r="M32" t="n">
-        <v>1719.986455722831</v>
+        <v>1711.757264940885</v>
       </c>
       <c r="N32" t="n">
-        <v>2247.797739360293</v>
+        <v>2239.568548578347</v>
       </c>
       <c r="O32" t="n">
-        <v>2785.607809239419</v>
+        <v>2794.477684958974</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011326</v>
+        <v>3142.665177090496</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152275</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152275</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491229</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.50382044855</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216706</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382475</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748666</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079627</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398132</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.5426273830455</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633126</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590212</v>
+        <v>341.6872565554789</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229143</v>
+        <v>288.6839909715329</v>
       </c>
       <c r="D34" t="n">
-        <v>284.787882623333</v>
+        <v>250.2527302241123</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804395</v>
+        <v>211.8957704333796</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913163</v>
+        <v>171.7716879964173</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886658</v>
+        <v>120.7194864459275</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806369</v>
+        <v>82.44278775748627</v>
       </c>
       <c r="I34" t="n">
-        <v>68.5426273830455</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J34" t="n">
-        <v>68.5426273830455</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929874</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>314.5053083667872</v>
+        <v>427.382431216669</v>
       </c>
       <c r="M34" t="n">
-        <v>609.2873943454367</v>
+        <v>728.5435450432315</v>
       </c>
       <c r="N34" t="n">
-        <v>821.1101792828028</v>
+        <v>911.7331790744406</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964897</v>
+        <v>1189.307481604447</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381861</v>
+        <v>1323.033455149257</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392297</v>
+        <v>1326.455651519308</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422778</v>
+        <v>1319.75651450195</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034564</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.22861956937</v>
+        <v>1115.625083552863</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448284</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279027</v>
+        <v>798.6106513157173</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569842</v>
+        <v>632.4821015969596</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378712</v>
+        <v>515.6036317300075</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524185</v>
+        <v>409.6934228967155</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7020,10 +7020,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7096,16 +7096,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222413</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
         <v>974.9038003296507</v>
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,16 +7199,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446702</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>442.71782091847</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1812.812015342702</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C41" t="n">
-        <v>1517.077765835765</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1229.077889042566</v>
+        <v>1043.331955516593</v>
       </c>
       <c r="E41" t="n">
-        <v>923.9356161492442</v>
+        <v>738.1896826232703</v>
       </c>
       <c r="F41" t="n">
-        <v>604.4824296693552</v>
+        <v>418.7364961433813</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474917</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2951.591876536389</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2706.926319230041</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2706.926319230041</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2414.914966153231</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>2115.865509063966</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344866</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906085</v>
+        <v>402.816506090609</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832569</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690448</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016744091</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>245.5691623529123</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022416</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160351</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.89146594001</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557611</v>
+        <v>825.657018155762</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288782</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356548</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1627.066081816727</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1331.331832309791</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1043.331955516592</v>
+        <v>1002.436090599191</v>
       </c>
       <c r="E44" t="n">
-        <v>738.1896826232696</v>
+        <v>697.2938177058683</v>
       </c>
       <c r="F44" t="n">
-        <v>418.736496143381</v>
+        <v>377.8406312259792</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2924.157420585683</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2765.845943010415</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2521.180385704066</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2521.180385704066</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2229.169032627256</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1930.119575537991</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7728,16 +7728,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>381.858273766342</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344866</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906085</v>
+        <v>402.816506090609</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832569</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690448</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822076</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.1847683676789</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170083</v>
+        <v>564.8145793170082</v>
       </c>
       <c r="M46" t="n">
-        <v>846.608328730802</v>
+        <v>846.6083287308018</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557611</v>
+        <v>825.657018155762</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288782</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356548</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>123.8044614350457</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
@@ -7988,13 +7988,13 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507696</v>
+        <v>655.3475650705624</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>446.632834370636</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>511.3170210278621</v>
+        <v>598.6161957820901</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>107.9567559936367</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216672</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>233.7961345284494</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>164.2633295905286</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507696</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8295,19 +8295,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>138.6093284369037</v>
       </c>
       <c r="M6" t="n">
-        <v>539.8840394331763</v>
+        <v>598.6161957820901</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671522</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216672</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8453,13 +8453,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>324.3528815085492</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>471.7186805737889</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>105.1563108732267</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8775,7 +8775,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,22 +9003,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>571.8744206036794</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,10 +9954,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>192.2856137303842</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10428,16 +10428,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10601,7 +10601,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10902,22 +10902,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,19 +11376,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
-        <v>280.5807329993939</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>187.0163395916322</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364589</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.1130620038565</v>
       </c>
       <c r="E14" t="n">
-        <v>300.8359558898189</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213459</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822791</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812804</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>3.907499216822515</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531181</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.486906268228</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>13.19936201018186</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>648686.1832994568</v>
+        <v>647182.314265056</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>648686.1832994568</v>
+        <v>647182.314265056</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623792.6698154699</v>
+        <v>623792.66981547</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>626231.2251146964</v>
+        <v>626231.2251146963</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>626231.2251146964</v>
+        <v>626231.2251146963</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>667229.05894542</v>
+        <v>667229.0589454196</v>
       </c>
       <c r="C2" t="n">
-        <v>667229.0589454198</v>
+        <v>667229.0589454201</v>
       </c>
       <c r="D2" t="n">
-        <v>667229.05894542</v>
+        <v>667229.0589454201</v>
       </c>
       <c r="E2" t="n">
-        <v>627061.6539279826</v>
+        <v>627061.6539279824</v>
       </c>
       <c r="F2" t="n">
-        <v>627061.6539279827</v>
+        <v>627061.6539279823</v>
       </c>
       <c r="G2" t="n">
         <v>667229.05894542</v>
       </c>
       <c r="H2" t="n">
-        <v>667229.0589454198</v>
+        <v>667229.05894542</v>
       </c>
       <c r="I2" t="n">
-        <v>667229.0589454198</v>
+        <v>667229.0589454201</v>
       </c>
       <c r="J2" t="n">
-        <v>667229.0589454218</v>
+        <v>667229.0589454217</v>
       </c>
       <c r="K2" t="n">
-        <v>667229.0589454219</v>
+        <v>667229.0589454217</v>
       </c>
       <c r="L2" t="n">
-        <v>667229.0589454189</v>
+        <v>667229.0589454204</v>
       </c>
       <c r="M2" t="n">
-        <v>667229.0589454198</v>
+        <v>667229.05894542</v>
       </c>
       <c r="N2" t="n">
         <v>667229.05894542</v>
       </c>
       <c r="O2" t="n">
+        <v>629795.7916877213</v>
+      </c>
+      <c r="P2" t="n">
         <v>629795.7916877215</v>
-      </c>
-      <c r="P2" t="n">
-        <v>629795.7916877213</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343508</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602644</v>
+        <v>26460.41160941822</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301436</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469667</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.0333767011</v>
+        <v>46725.80335481244</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436848</v>
+        <v>43782.9719455567</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015684</v>
+        <v>18983.55983015677</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224181.5440797611</v>
+        <v>229389.8493215836</v>
       </c>
       <c r="C4" t="n">
-        <v>224181.5440797611</v>
+        <v>229389.8493215837</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26430,13 +26430,13 @@
         <v>161760.5563326216</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186792.5147858255</v>
+        <v>186659.1201767707</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
-        <v>163435.172231613</v>
+        <v>163435.1722316129</v>
       </c>
       <c r="P4" t="n">
-        <v>163435.172231613</v>
+        <v>163435.1722316129</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814952</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814952</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446768</v>
+        <v>60332.67530588338</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255071</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199131.6564431585</v>
+        <v>203783.8760643332</v>
       </c>
       <c r="C6" t="n">
-        <v>377126.9535775092</v>
+        <v>373432.8819408835</v>
       </c>
       <c r="D6" t="n">
-        <v>367343.58397743</v>
+        <v>359607.2947540383</v>
       </c>
       <c r="E6" t="n">
-        <v>279735.8769487397</v>
+        <v>279627.3163946383</v>
       </c>
       <c r="F6" t="n">
-        <v>410188.808086452</v>
+        <v>410080.2475323504</v>
       </c>
       <c r="G6" t="n">
-        <v>393599.4567807824</v>
+        <v>393599.4567807825</v>
       </c>
       <c r="H6" t="n">
-        <v>422694.4126537966</v>
+        <v>422694.4126537967</v>
       </c>
       <c r="I6" t="n">
-        <v>422694.4126537966</v>
+        <v>422694.4126537969</v>
       </c>
       <c r="J6" t="n">
-        <v>194608.769304049</v>
+        <v>201125.0544586223</v>
       </c>
       <c r="K6" t="n">
-        <v>416454.6442510158</v>
+        <v>416454.6442510156</v>
       </c>
       <c r="L6" t="n">
-        <v>377560.2973184247</v>
+        <v>373511.4601079539</v>
       </c>
       <c r="M6" t="n">
-        <v>379963.1357194282</v>
+        <v>378911.4407082401</v>
       </c>
       <c r="N6" t="n">
         <v>422694.4126537968</v>
       </c>
       <c r="O6" t="n">
-        <v>392056.6518434009</v>
+        <v>391955.4808508125</v>
       </c>
       <c r="P6" t="n">
-        <v>411040.2116735575</v>
+        <v>410939.0406809695</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431646</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="P2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880687</v>
+        <v>831.8776843078613</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304855</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087637</v>
+        <v>58.40725419351554</v>
       </c>
       <c r="M2" t="n">
-        <v>20.7735979616595</v>
+        <v>14.33013548902029</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769605</v>
+        <v>23.72944978769596</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630955</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559198</v>
+        <v>646.8007142757123</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455244</v>
+        <v>129.6883820257318</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304855</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630955</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,16 +27385,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>174.6965292202005</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857377</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.99219550354918</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>185.0330717459179</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>89.83064772952766</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.995132671382</v>
       </c>
       <c r="I5" t="n">
-        <v>90.59979546299397</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026243</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019407919</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27780,13 +27780,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27825,16 +27825,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>96.13147754693921</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>246.5753159688711</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,7 +27916,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.46188697250406</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28518,7 +28518,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
         <v>93.99127447431646</v>
@@ -28743,16 +28743,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634528381</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -28980,28 +28980,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29220,7 +29220,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>35.71049010668769</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>35.71049010668813</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29299,19 +29299,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901311</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>103.2865954513707</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,10 +29785,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>98.75804948161363</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="N34" t="n">
-        <v>28.92237465268374</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539249</v>
+        <v>13.98970481639526</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -30168,19 +30168,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529177</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30402,11 +30402,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>35.71049010668865</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J43" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561693219</v>
       </c>
       <c r="K43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="L43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="M43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="N43" t="n">
-        <v>36.24905561693058</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="O43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="P43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="R43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="S43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="K46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="L46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="M46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="N46" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561693217</v>
       </c>
       <c r="O46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="P46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561693076</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="R46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="S46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>6.124623492699647</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>296.3313871297108</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>418.9298989785502</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>22.58464313947007</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>90.73773134921207</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>14.53827799280134</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129855</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35015,19 +35015,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>48.54898157998549</v>
       </c>
       <c r="M6" t="n">
-        <v>447.4969173838645</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129855</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>181.2944783293118</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>381.6583337168707</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>22.71185353989334</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35814,7 +35814,7 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>486.5023077495127</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873203</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36516,7 +36516,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934977</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816469</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36595,19 +36595,19 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907927</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
@@ -36674,10 +36674,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>102.225266873466</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36838,7 +36838,7 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101038</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700709</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215727</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6972530800139</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>601.5899204195816</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,10 +37081,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>543.2424948273999</v>
+        <v>560.5142791723504</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605126</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37148,16 +37148,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37230,22 +37230,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>281.8153286485841</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067168</v>
+        <v>304.203145279356</v>
       </c>
       <c r="N34" t="n">
-        <v>213.9624090276425</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910038</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>230.673407491883</v>
+        <v>135.0767409543534</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640774</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133915</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37622,22 +37622,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>118.3721477934986</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807283</v>
+        <v>6.174568144773118</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>221.2890899918894</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038439</v>
+        <v>99.9236034803843</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
-        <v>188.193610950082</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807283</v>
+        <v>66.39235199807274</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.289089991891</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708324</v>
+        <v>99.9236034803843</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
